--- a/notes/2018_1st_half_schedule.xlsx
+++ b/notes/2018_1st_half_schedule.xlsx
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>小組及個人新年立志、簽小組約章　（領詩︰Titus，司事︰Manna）</v>
+        <v>小組及個人新年立志、簽小組約章　（領詩︰Oikos，司事︰Manna）</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
